--- a/Development Version/Templates/Import/AGS4/AGS4minimal.xlsx
+++ b/Development Version/Templates/Import/AGS4/AGS4minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger.Chandler\OneDrive - Bentley Systems, Inc\Projects\DataConverter\github\Data-Converter-Feedback-Tool\Development Version\templates\import\AGS4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{F62B308B-ED3F-428E-820E-CEA88C1F7E9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{33BCC939-F61A-4E86-8C6E-5B2F03D6C027}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{F62B308B-ED3F-428E-820E-CEA88C1F7E9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{07EBB546-63C3-4BAD-A12F-22EE86E4179D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5076" yWindow="852" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEOL" sheetId="43" r:id="rId1"/>
@@ -334,6 +334,18 @@
     <t>LOCA_BASE</t>
   </si>
   <si>
+    <t>yyyy-mm-ddThh:mm:ss</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>l/min</t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
     <t>DATA</t>
   </si>
   <si>
@@ -446,18 +458,6 @@
   </si>
   <si>
     <t>2015-11-17</t>
-  </si>
-  <si>
-    <t>yyyy-mm-ddThh:mm:ss</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>l/min</t>
-  </si>
-  <si>
-    <t>hh:mm:ss</t>
   </si>
   <si>
     <t>0.30</t>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD65"/>
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1322,117 +1322,117 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s">
         <v>119</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
         <v>125</v>
       </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1564,22 +1564,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1786,37 +1786,37 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" t="s">
         <v>128</v>
       </c>
-      <c r="D7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" t="s">
-        <v>124</v>
-      </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M7">
         <f>LOCA[LOCA_GL]-LOCA[LOCA_FDEP]</f>
@@ -1949,19 +1949,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD231"/>
+      <selection activeCell="A8" sqref="A8:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
@@ -2016,19 +2016,19 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="V3" t="s">
         <v>16</v>
       </c>
       <c r="AC3" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="AE3" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="AJ3" t="s">
         <v>18</v>
@@ -2372,16 +2372,16 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>141</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>144</v>
@@ -2417,7 +2417,7 @@
         <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
         <v>143</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>147</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>151</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>155</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
         <v>159</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
         <v>162</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>169</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
         <v>177</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
         <v>140</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>190</v>
@@ -2795,7 +2795,7 @@
         <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
         <v>143</v>
@@ -2961,34 +2961,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
